--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T22:32:51+01:00</t>
+    <t>2023-04-30T22:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -854,10 +854,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
+++ b/fhir/core/CodeSystem-dk-core-municipality-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
